--- a/output/mysiadlo/2022/sheets/year_2022.xlsx
+++ b/output/mysiadlo/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>55.13870967741935</v>
+        <v>55.69497039857745</v>
       </c>
       <c r="C2" t="n">
-        <v>48.98709677419355</v>
+        <v>49.53085651986673</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>53.91071428571428</v>
+        <v>55.10836714080726</v>
       </c>
       <c r="C3" t="n">
-        <v>48.39285714285715</v>
+        <v>48.93639268099545</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>49.9516129032258</v>
+        <v>54.46294264996084</v>
       </c>
       <c r="C4" t="n">
-        <v>45.94193548387096</v>
+        <v>48.47984808317688</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.26</v>
+        <v>53.60098335173906</v>
       </c>
       <c r="C5" t="n">
-        <v>28.87</v>
+        <v>49.44413027004831</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>55.56129032258064</v>
+        <v>56.70865347160814</v>
       </c>
       <c r="C6" t="n">
-        <v>48.6032258064516</v>
+        <v>50.36110861484994</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.91999999999999</v>
+        <v>56.68114814565755</v>
       </c>
       <c r="C7" t="n">
-        <v>50.73333333333333</v>
+        <v>51.89201041004899</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>56.27741935483871</v>
+        <v>57.69416994202616</v>
       </c>
       <c r="C8" t="n">
-        <v>51.65806451612904</v>
+        <v>52.39239590636012</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48.45806451612903</v>
+        <v>54.61023215563135</v>
       </c>
       <c r="C9" t="n">
-        <v>47.70322580645161</v>
+        <v>49.83383310528598</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.53333333333333</v>
+        <v>56.68033231049496</v>
       </c>
       <c r="C10" t="n">
-        <v>49.76333333333334</v>
+        <v>51.37213206207036</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.85806451612903</v>
+        <v>56.89807214494859</v>
       </c>
       <c r="C11" t="n">
-        <v>50.59354838709677</v>
+        <v>51.14577245783313</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>48.77666666666667</v>
+        <v>54.12811908308693</v>
       </c>
       <c r="C12" t="n">
-        <v>45.88333333333333</v>
+        <v>48.01017800919536</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>49.58064516129033</v>
+        <v>55.12801435213851</v>
       </c>
       <c r="C13" t="n">
-        <v>46.83225806451613</v>
+        <v>50.66065075572418</v>
       </c>
     </row>
   </sheetData>
